--- a/items/complete_audio2.xlsx
+++ b/items/complete_audio2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Maik/Library/Mobile Documents/com~apple~CloudDocs/Studium/xx. Python/GUI_experiment/items/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07AE0B3-41D4-9D48-813A-8F0FD83A6B44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D11A72C-A7CB-704E-A095-5EB45CCAF298}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="15960" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
-  <si>
-    <t>Table 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>a</t>
   </si>
@@ -36,19 +33,26 @@
   <si>
     <t>items/2_n.wav</t>
   </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>sub_exp</t>
+  </si>
+  <si>
+    <t>item_number</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
@@ -205,13 +209,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -223,7 +227,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -235,8 +239,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1397,11 +1401,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="169" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1409,17 +1413,23 @@
     <col min="1" max="256" width="16.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+        <v>4</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -1428,12 +1438,12 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -1442,12 +1452,12 @@
         <v>2</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="9">
         <v>1</v>
@@ -1456,13 +1466,10 @@
         <v>3</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>
   <headerFooter>
